--- a/plots_to_show/BR/final_metrics.xlsx
+++ b/plots_to_show/BR/final_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,7 +407,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,22 +416,22 @@
         </is>
       </c>
       <c r="C2">
-        <v>8104.424187726412</v>
+        <v>11484.54150769252</v>
       </c>
       <c r="D2">
-        <v>40.44168098734507</v>
+        <v>25.05055481377521</v>
       </c>
       <c r="E2">
-        <v>6329.5676584957</v>
+        <v>8868.131248810469</v>
       </c>
       <c r="F2">
-        <v>37.50869182877114</v>
+        <v>21.73535765496148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -440,31 +440,31 @@
         </is>
       </c>
       <c r="C3">
-        <v>4568.132903589492</v>
+        <v>7329.351261883578</v>
       </c>
       <c r="D3">
-        <v>31.92565723429096</v>
+        <v>20.54423506440512</v>
       </c>
       <c r="E3">
-        <v>4263.003395833333</v>
+        <v>6857.531895833334</v>
       </c>
       <c r="F3">
-        <v>29.89145290491064</v>
+        <v>18.94458433570844</v>
       </c>
       <c r="G3">
-        <v>3923.707832935417</v>
+        <v>5995.919793907084</v>
       </c>
       <c r="H3">
-        <v>0.2083333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -473,49 +473,391 @@
         </is>
       </c>
       <c r="C4">
-        <v>4519.588375177575</v>
+        <v>7215.949265573547</v>
       </c>
       <c r="D4">
-        <v>37.73444381918399</v>
+        <v>20.43864114403762</v>
       </c>
       <c r="E4">
-        <v>4284.081691666667</v>
+        <v>6712.609825</v>
       </c>
       <c r="F4">
-        <v>34.99444065935269</v>
+        <v>17.89565582890354</v>
       </c>
       <c r="G4">
-        <v>3792.826712135</v>
+        <v>5940.490625765001</v>
       </c>
       <c r="H4">
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>5690.171660987475</v>
+      </c>
+      <c r="D5">
+        <v>14.24321709177373</v>
+      </c>
+      <c r="E5">
+        <v>5397.5625</v>
+      </c>
+      <c r="F5">
+        <v>13.15637387704677</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>RS</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>8104.424187726412</v>
+      </c>
+      <c r="D6">
+        <v>40.44168098734507</v>
+      </c>
+      <c r="E6">
+        <v>6329.5676584957</v>
+      </c>
+      <c r="F6">
+        <v>37.50869182877114</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>4486.419654327045</v>
+      </c>
+      <c r="D7">
+        <v>29.71708581109228</v>
+      </c>
+      <c r="E7">
+        <v>4186.94315</v>
+      </c>
+      <c r="F7">
+        <v>27.87180647166429</v>
+      </c>
+      <c r="G7">
+        <v>3804.940174281667</v>
+      </c>
+      <c r="H7">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="I7">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>4306.349778019565</v>
+      </c>
+      <c r="D8">
+        <v>30.12556962316969</v>
+      </c>
+      <c r="E8">
+        <v>4074.276945833333</v>
+      </c>
+      <c r="F8">
+        <v>29.05932882587462</v>
+      </c>
+      <c r="G8">
+        <v>3631.572503907084</v>
+      </c>
+      <c r="H8">
+        <v>0.25</v>
+      </c>
+      <c r="I8">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Bastos</t>
         </is>
       </c>
-      <c r="C5">
+      <c r="C9">
         <v>3872.603633731065</v>
       </c>
-      <c r="D5">
+      <c r="D9">
         <v>25.10600316886911</v>
       </c>
-      <c r="E5">
+      <c r="E9">
         <v>3601.916666666667</v>
       </c>
-      <c r="F5">
+      <c r="F9">
         <v>24.21745359574475</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>11282.176059295</v>
+      </c>
+      <c r="D10">
+        <v>33.88616903808781</v>
+      </c>
+      <c r="E10">
+        <v>9046.618010075275</v>
+      </c>
+      <c r="F10">
+        <v>32.07223505271391</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>7175.025466313111</v>
+      </c>
+      <c r="D11">
+        <v>26.44259085286908</v>
+      </c>
+      <c r="E11">
+        <v>6662.606929166667</v>
+      </c>
+      <c r="F11">
+        <v>24.21966148458909</v>
+      </c>
+      <c r="G11">
+        <v>6028.18712075125</v>
+      </c>
+      <c r="H11">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="I11">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>6977.156431230755</v>
+      </c>
+      <c r="D12">
+        <v>23.18352177633213</v>
+      </c>
+      <c r="E12">
+        <v>6605.0982125</v>
+      </c>
+      <c r="F12">
+        <v>22.40151803302255</v>
+      </c>
+      <c r="G12">
+        <v>5986.542579855417</v>
+      </c>
+      <c r="H12">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="I12">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>7571.527352955327</v>
+      </c>
+      <c r="D13">
+        <v>26.42503346544768</v>
+      </c>
+      <c r="E13">
+        <v>7249.666666666667</v>
+      </c>
+      <c r="F13">
+        <v>24.68192918616597</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>62798.26853839643</v>
+      </c>
+      <c r="D14">
+        <v>34.67147554185567</v>
+      </c>
+      <c r="E14">
+        <v>55360.37226797239</v>
+      </c>
+      <c r="F14">
+        <v>33.50512395722087</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>50254.56183357508</v>
+      </c>
+      <c r="D15">
+        <v>37.13364301222754</v>
+      </c>
+      <c r="E15">
+        <v>45067.97170416667</v>
+      </c>
+      <c r="F15">
+        <v>32.92768747019047</v>
+      </c>
+      <c r="G15">
+        <v>40019.49618830125</v>
+      </c>
+      <c r="H15">
+        <v>0.25</v>
+      </c>
+      <c r="I15">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>49014.15604734916</v>
+      </c>
+      <c r="D16">
+        <v>32.53678946992844</v>
+      </c>
+      <c r="E16">
+        <v>45322.26379583334</v>
+      </c>
+      <c r="F16">
+        <v>30.2417805435602</v>
+      </c>
+      <c r="G16">
+        <v>39753.50108213459</v>
+      </c>
+      <c r="H16">
+        <v>0.25</v>
+      </c>
+      <c r="I16">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>57132.55334683681</v>
+      </c>
+      <c r="D17">
+        <v>31.63492990547712</v>
+      </c>
+      <c r="E17">
+        <v>54985.20833333334</v>
+      </c>
+      <c r="F17">
+        <v>31.10286451291734</v>
       </c>
     </row>
   </sheetData>

--- a/plots_to_show/BR/final_metrics.xlsx
+++ b/plots_to_show/BR/final_metrics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,7 +407,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,22 +416,22 @@
         </is>
       </c>
       <c r="C2">
-        <v>11484.54150769252</v>
+        <v>123.8218093846829</v>
       </c>
       <c r="D2">
-        <v>25.05055481377521</v>
+        <v>47.22760080796929</v>
       </c>
       <c r="E2">
-        <v>8868.131248810469</v>
+        <v>107.6434259586389</v>
       </c>
       <c r="F2">
-        <v>21.73535765496148</v>
+        <v>39.60052408409663</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -440,31 +440,31 @@
         </is>
       </c>
       <c r="C3">
-        <v>7329.351261883578</v>
+        <v>92.92172684939159</v>
       </c>
       <c r="D3">
-        <v>20.54423506440512</v>
+        <v>27.61252280190238</v>
       </c>
       <c r="E3">
-        <v>6857.531895833334</v>
+        <v>69.66511250000001</v>
       </c>
       <c r="F3">
-        <v>18.94458433570844</v>
+        <v>19.68485077229267</v>
       </c>
       <c r="G3">
-        <v>5995.919793907084</v>
+        <v>59.79010908041667</v>
       </c>
       <c r="H3">
-        <v>0.2916666666666667</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="I3">
-        <v>0.08333333333333333</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -473,31 +473,31 @@
         </is>
       </c>
       <c r="C4">
-        <v>7215.949265573547</v>
+        <v>50.51224138688515</v>
       </c>
       <c r="D4">
-        <v>20.43864114403762</v>
+        <v>15.80377309811679</v>
       </c>
       <c r="E4">
-        <v>6712.609825</v>
+        <v>45.31229166666667</v>
       </c>
       <c r="F4">
-        <v>17.89565582890354</v>
+        <v>13.4391337005072</v>
       </c>
       <c r="G4">
-        <v>5940.490625765001</v>
+        <v>30.12064005916666</v>
       </c>
       <c r="H4">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0.125</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -506,22 +506,22 @@
         </is>
       </c>
       <c r="C5">
-        <v>5690.171660987475</v>
+        <v>74.65022993154849</v>
       </c>
       <c r="D5">
-        <v>14.24321709177373</v>
+        <v>19.44605361141392</v>
       </c>
       <c r="E5">
-        <v>5397.5625</v>
+        <v>64.77083333333333</v>
       </c>
       <c r="F5">
-        <v>13.15637387704677</v>
+        <v>15.99055473942366</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -530,22 +530,22 @@
         </is>
       </c>
       <c r="C6">
-        <v>8104.424187726412</v>
+        <v>352.6738194261956</v>
       </c>
       <c r="D6">
-        <v>40.44168098734507</v>
+        <v>39.61394993317136</v>
       </c>
       <c r="E6">
-        <v>6329.5676584957</v>
+        <v>276.6483838459441</v>
       </c>
       <c r="F6">
-        <v>37.50869182877114</v>
+        <v>30.45683221565837</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -554,31 +554,31 @@
         </is>
       </c>
       <c r="C7">
-        <v>4486.419654327045</v>
+        <v>1456.353042839046</v>
       </c>
       <c r="D7">
-        <v>29.71708581109228</v>
+        <v>140.6837753913901</v>
       </c>
       <c r="E7">
-        <v>4186.94315</v>
+        <v>986.4461249999999</v>
       </c>
       <c r="F7">
-        <v>27.87180647166429</v>
+        <v>98.85957438871375</v>
       </c>
       <c r="G7">
-        <v>3804.940174281667</v>
+        <v>505.8016244674999</v>
       </c>
       <c r="H7">
-        <v>0.2916666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="I7">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -587,31 +587,31 @@
         </is>
       </c>
       <c r="C8">
-        <v>4306.349778019565</v>
+        <v>342.7438050811872</v>
       </c>
       <c r="D8">
-        <v>30.12556962316969</v>
+        <v>36.0812278510235</v>
       </c>
       <c r="E8">
-        <v>4074.276945833333</v>
+        <v>333.0776958333333</v>
       </c>
       <c r="F8">
-        <v>29.05932882587462</v>
+        <v>35.29248745238254</v>
       </c>
       <c r="G8">
-        <v>3631.572503907084</v>
+        <v>248.64319916875</v>
       </c>
       <c r="H8">
-        <v>0.25</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="I8">
-        <v>0.08333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C9">
-        <v>3872.603633731065</v>
+        <v>155.6469885797353</v>
       </c>
       <c r="D9">
-        <v>25.10600316886911</v>
+        <v>17.14465015404069</v>
       </c>
       <c r="E9">
-        <v>3601.916666666667</v>
+        <v>132.5208333333333</v>
       </c>
       <c r="F9">
-        <v>24.21745359574475</v>
+        <v>14.84175782471271</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -644,22 +644,22 @@
         </is>
       </c>
       <c r="C10">
-        <v>11282.176059295</v>
+        <v>141.6332191001053</v>
       </c>
       <c r="D10">
-        <v>33.88616903808781</v>
+        <v>27.46501818044199</v>
       </c>
       <c r="E10">
-        <v>9046.618010075275</v>
+        <v>102.4844610380474</v>
       </c>
       <c r="F10">
-        <v>32.07223505271391</v>
+        <v>23.80804250994639</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -668,31 +668,31 @@
         </is>
       </c>
       <c r="C11">
-        <v>7175.025466313111</v>
+        <v>289.025295691827</v>
       </c>
       <c r="D11">
-        <v>26.44259085286908</v>
+        <v>73.90588690097789</v>
       </c>
       <c r="E11">
-        <v>6662.606929166667</v>
+        <v>251.9262666666666</v>
       </c>
       <c r="F11">
-        <v>24.21966148458909</v>
+        <v>62.09544608515977</v>
       </c>
       <c r="G11">
-        <v>6028.18712075125</v>
+        <v>217.5416397566667</v>
       </c>
       <c r="H11">
-        <v>0.4583333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="I11">
-        <v>0.125</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -701,31 +701,31 @@
         </is>
       </c>
       <c r="C12">
-        <v>6977.156431230755</v>
+        <v>653.3559527636434</v>
       </c>
       <c r="D12">
-        <v>23.18352177633213</v>
+        <v>184.2773548912057</v>
       </c>
       <c r="E12">
-        <v>6605.0982125</v>
+        <v>599.4129166666667</v>
       </c>
       <c r="F12">
-        <v>22.40151803302255</v>
+        <v>171.3877284749358</v>
       </c>
       <c r="G12">
-        <v>5986.542579855417</v>
+        <v>432.7529218475</v>
       </c>
       <c r="H12">
         <v>0.4166666666666667</v>
       </c>
       <c r="I12">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -734,22 +734,22 @@
         </is>
       </c>
       <c r="C13">
-        <v>7571.527352955327</v>
+        <v>263.5124183296178</v>
       </c>
       <c r="D13">
-        <v>26.42503346544768</v>
+        <v>64.93367898865407</v>
       </c>
       <c r="E13">
-        <v>7249.666666666667</v>
+        <v>253.4583333333333</v>
       </c>
       <c r="F13">
-        <v>24.68192918616597</v>
+        <v>64.4150920223984</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,22 +758,22 @@
         </is>
       </c>
       <c r="C14">
-        <v>62798.26853839643</v>
+        <v>146.9397160032418</v>
       </c>
       <c r="D14">
-        <v>34.67147554185567</v>
+        <v>19.48363120824817</v>
       </c>
       <c r="E14">
-        <v>55360.37226797239</v>
+        <v>110.0841971258668</v>
       </c>
       <c r="F14">
-        <v>33.50512395722087</v>
+        <v>16.66807627551314</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -782,31 +782,31 @@
         </is>
       </c>
       <c r="C15">
-        <v>50254.56183357508</v>
+        <v>131.9591605882086</v>
       </c>
       <c r="D15">
-        <v>37.13364301222754</v>
+        <v>26.26946744810385</v>
       </c>
       <c r="E15">
-        <v>45067.97170416667</v>
+        <v>103.4988708333333</v>
       </c>
       <c r="F15">
-        <v>32.92768747019047</v>
+        <v>18.98561220902666</v>
       </c>
       <c r="G15">
-        <v>40019.49618830125</v>
+        <v>81.94137056708334</v>
       </c>
       <c r="H15">
-        <v>0.25</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I15">
-        <v>0.08333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -815,49 +815,2557 @@
         </is>
       </c>
       <c r="C16">
-        <v>49014.15604734916</v>
+        <v>75.12416842648696</v>
       </c>
       <c r="D16">
-        <v>32.53678946992844</v>
+        <v>12.38559010961662</v>
       </c>
       <c r="E16">
-        <v>45322.26379583334</v>
+        <v>65.76475833333332</v>
       </c>
       <c r="F16">
-        <v>30.2417805435602</v>
+        <v>10.68978766674113</v>
       </c>
       <c r="G16">
-        <v>39753.50108213459</v>
+        <v>50.32796147000001</v>
       </c>
       <c r="H16">
-        <v>0.25</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I16">
-        <v>0.125</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>78.17630425911933</v>
+      </c>
+      <c r="D17">
+        <v>13.01209860281414</v>
+      </c>
+      <c r="E17">
+        <v>68.41666666666667</v>
+      </c>
+      <c r="F17">
+        <v>10.68415369382216</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>7232.112954547277</v>
+      </c>
+      <c r="D18">
+        <v>46.41224881101223</v>
+      </c>
+      <c r="E18">
+        <v>5837.232500270759</v>
+      </c>
+      <c r="F18">
+        <v>42.50424750526036</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>12875.53698775167</v>
+      </c>
+      <c r="D19">
+        <v>212.1770563282891</v>
+      </c>
+      <c r="E19">
+        <v>7919.318683333333</v>
+      </c>
+      <c r="F19">
+        <v>136.6131542996761</v>
+      </c>
+      <c r="G19">
+        <v>5993.663786985834</v>
+      </c>
+      <c r="H19">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="I19">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>6235.88684244185</v>
+      </c>
+      <c r="D20">
+        <v>93.81849656412501</v>
+      </c>
+      <c r="E20">
+        <v>4626.513066666666</v>
+      </c>
+      <c r="F20">
+        <v>74.68581274225384</v>
+      </c>
+      <c r="G20">
+        <v>2925.751136869167</v>
+      </c>
+      <c r="H20">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="I20">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>3795.353148387106</v>
+      </c>
+      <c r="D21">
+        <v>24.1389607640961</v>
+      </c>
+      <c r="E21">
+        <v>2664.770833333333</v>
+      </c>
+      <c r="F21">
+        <v>18.30780028583151</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>872.2729127504624</v>
+      </c>
+      <c r="D22">
+        <v>41.23148310638734</v>
+      </c>
+      <c r="E22">
+        <v>633.8270205002277</v>
+      </c>
+      <c r="F22">
+        <v>33.26986456912327</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>342.6997609322422</v>
+      </c>
+      <c r="D23">
+        <v>19.40582206956857</v>
+      </c>
+      <c r="E23">
+        <v>297.7660708333333</v>
+      </c>
+      <c r="F23">
+        <v>15.92167021172594</v>
+      </c>
+      <c r="G23">
+        <v>260.4756233145833</v>
+      </c>
+      <c r="H23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I23">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>244.9935563073996</v>
+      </c>
+      <c r="D24">
+        <v>13.37696137688401</v>
+      </c>
+      <c r="E24">
+        <v>229.8312166666667</v>
+      </c>
+      <c r="F24">
+        <v>12.06330943081517</v>
+      </c>
+      <c r="G24">
+        <v>185.8970507783334</v>
+      </c>
+      <c r="H24">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="I24">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>238.2331289345936</v>
+      </c>
+      <c r="D25">
+        <v>13.73565673473085</v>
+      </c>
+      <c r="E25">
+        <v>202.5208333333333</v>
+      </c>
+      <c r="F25">
+        <v>11.36803782748698</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>3021.101693196908</v>
+      </c>
+      <c r="D26">
+        <v>49.0878441123973</v>
+      </c>
+      <c r="E26">
+        <v>1756.868225518639</v>
+      </c>
+      <c r="F26">
+        <v>32.5753857897317</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>1407.304047947487</v>
+      </c>
+      <c r="D27">
+        <v>24.97192776480427</v>
+      </c>
+      <c r="E27">
+        <v>1381.187516666667</v>
+      </c>
+      <c r="F27">
+        <v>23.38717266833634</v>
+      </c>
+      <c r="G27">
+        <v>1207.842512965834</v>
+      </c>
+      <c r="H27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>1317.658314196896</v>
+      </c>
+      <c r="D28">
+        <v>22.83642661732729</v>
+      </c>
+      <c r="E28">
+        <v>1269.8919875</v>
+      </c>
+      <c r="F28">
+        <v>21.15165747736298</v>
+      </c>
+      <c r="G28">
+        <v>1097.196231317083</v>
+      </c>
+      <c r="H28">
+        <v>0.375</v>
+      </c>
+      <c r="I28">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>1400.373681976118</v>
+      </c>
+      <c r="D29">
+        <v>20.03727863363002</v>
+      </c>
+      <c r="E29">
+        <v>1351.479166666667</v>
+      </c>
+      <c r="F29">
+        <v>18.55743328482975</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>5281.976342459557</v>
+      </c>
+      <c r="D30">
+        <v>25.79979975608005</v>
+      </c>
+      <c r="E30">
+        <v>4210.721964999583</v>
+      </c>
+      <c r="F30">
+        <v>23.44901491265884</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>3447.321267988642</v>
+      </c>
+      <c r="D31">
+        <v>22.39286645722263</v>
+      </c>
+      <c r="E31">
+        <v>3091.377725</v>
+      </c>
+      <c r="F31">
+        <v>19.39824796335163</v>
+      </c>
+      <c r="G31">
+        <v>2691.074808656667</v>
+      </c>
+      <c r="H31">
+        <v>0.375</v>
+      </c>
+      <c r="I31">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>3288.350589408689</v>
+      </c>
+      <c r="D32">
+        <v>21.4762853423851</v>
+      </c>
+      <c r="E32">
+        <v>3134.192620833333</v>
+      </c>
+      <c r="F32">
+        <v>19.95219124652789</v>
+      </c>
+      <c r="G32">
+        <v>2533.47761588125</v>
+      </c>
+      <c r="H32">
+        <v>0.5</v>
+      </c>
+      <c r="I32">
+        <v>0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>3763.135525753664</v>
+      </c>
+      <c r="D33">
+        <v>21.0010125691372</v>
+      </c>
+      <c r="E33">
+        <v>3607.166666666667</v>
+      </c>
+      <c r="F33">
+        <v>20.24397181732371</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>384.976201173521</v>
+      </c>
+      <c r="D34">
+        <v>29.37267323092191</v>
+      </c>
+      <c r="E34">
+        <v>263.3583685752507</v>
+      </c>
+      <c r="F34">
+        <v>25.30856565560471</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>153.5735433885826</v>
+      </c>
+      <c r="D35">
+        <v>25.5670764922596</v>
+      </c>
+      <c r="E35">
+        <v>131.5180916666667</v>
+      </c>
+      <c r="F35">
+        <v>20.1761690201538</v>
+      </c>
+      <c r="G35">
+        <v>114.8132020083333</v>
+      </c>
+      <c r="H35">
+        <v>0.75</v>
+      </c>
+      <c r="I35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>122.3576958001282</v>
+      </c>
+      <c r="D36">
+        <v>17.06382486869139</v>
+      </c>
+      <c r="E36">
+        <v>108.2785791666667</v>
+      </c>
+      <c r="F36">
+        <v>15.56360596245021</v>
+      </c>
+      <c r="G36">
+        <v>88.98616276875001</v>
+      </c>
+      <c r="H36">
+        <v>0.75</v>
+      </c>
+      <c r="I36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>275.8991941600858</v>
+      </c>
+      <c r="D37">
+        <v>29.08503624758482</v>
+      </c>
+      <c r="E37">
+        <v>200.8333333333333</v>
+      </c>
+      <c r="F37">
+        <v>22.46408559328196</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>710.2969835804839</v>
+      </c>
+      <c r="D38">
+        <v>23.83983540649</v>
+      </c>
+      <c r="E38">
+        <v>583.5105023899143</v>
+      </c>
+      <c r="F38">
+        <v>21.7460071859677</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>510.3645699155457</v>
+      </c>
+      <c r="D39">
+        <v>21.40193876946776</v>
+      </c>
+      <c r="E39">
+        <v>426.3886416666667</v>
+      </c>
+      <c r="F39">
+        <v>17.16522579708007</v>
+      </c>
+      <c r="G39">
+        <v>330.964045555</v>
+      </c>
+      <c r="H39">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I39">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>404.4304702189049</v>
+      </c>
+      <c r="D40">
+        <v>16.79827378180865</v>
+      </c>
+      <c r="E40">
+        <v>345.0469833333333</v>
+      </c>
+      <c r="F40">
+        <v>13.8712311550052</v>
+      </c>
+      <c r="G40">
+        <v>260.6448879941667</v>
+      </c>
+      <c r="H40">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="I40">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>359.1637450196071</v>
+      </c>
+      <c r="D41">
+        <v>15.86560507366808</v>
+      </c>
+      <c r="E41">
+        <v>331.5208333333333</v>
+      </c>
+      <c r="F41">
+        <v>14.24756153574149</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>502.0969728414794</v>
+      </c>
+      <c r="D42">
+        <v>25.40178906550824</v>
+      </c>
+      <c r="E42">
+        <v>351.4727324405453</v>
+      </c>
+      <c r="F42">
+        <v>19.83416785514428</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>3493.813288307258</v>
+      </c>
+      <c r="D43">
+        <v>142.5079380397883</v>
+      </c>
+      <c r="E43">
+        <v>2095.5316125</v>
+      </c>
+      <c r="F43">
+        <v>92.90205637184113</v>
+      </c>
+      <c r="G43">
+        <v>1505.663165130416</v>
+      </c>
+      <c r="H43">
+        <v>0.625</v>
+      </c>
+      <c r="I43">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>1405.778794980457</v>
+      </c>
+      <c r="D44">
+        <v>76.71765367660038</v>
+      </c>
+      <c r="E44">
+        <v>1178.3845875</v>
+      </c>
+      <c r="F44">
+        <v>66.49435424478143</v>
+      </c>
+      <c r="G44">
+        <v>844.98097080625</v>
+      </c>
+      <c r="H44">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I44">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>599.8331922542591</v>
+      </c>
+      <c r="D45">
+        <v>26.6145341644956</v>
+      </c>
+      <c r="E45">
+        <v>546.9375</v>
+      </c>
+      <c r="F45">
+        <v>24.19618596078297</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>36271.60968863075</v>
+      </c>
+      <c r="D46">
+        <v>32.91505860209596</v>
+      </c>
+      <c r="E46">
+        <v>26417.32845633907</v>
+      </c>
+      <c r="F46">
+        <v>29.69319574393599</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>34067.51019654671</v>
+      </c>
+      <c r="D47">
+        <v>73.53605665593916</v>
+      </c>
+      <c r="E47">
+        <v>28784.07838333333</v>
+      </c>
+      <c r="F47">
+        <v>58.73128995740122</v>
+      </c>
+      <c r="G47">
+        <v>24385.66348842833</v>
+      </c>
+      <c r="H47">
+        <v>0.375</v>
+      </c>
+      <c r="I47">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>24320.9008361519</v>
+      </c>
+      <c r="D48">
+        <v>46.09876037524405</v>
+      </c>
+      <c r="E48">
+        <v>22835.14625</v>
+      </c>
+      <c r="F48">
+        <v>42.57523951784188</v>
+      </c>
+      <c r="G48">
+        <v>20704.4063941675</v>
+      </c>
+      <c r="H48">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="I48">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>27692.84965858235</v>
+      </c>
+      <c r="D49">
+        <v>40.80384305662434</v>
+      </c>
+      <c r="E49">
+        <v>26801.14583333333</v>
+      </c>
+      <c r="F49">
+        <v>40.14670817097219</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>494.7437813479969</v>
+      </c>
+      <c r="D50">
+        <v>29.13444614699183</v>
+      </c>
+      <c r="E50">
+        <v>416.2761334465566</v>
+      </c>
+      <c r="F50">
+        <v>27.38805901675995</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>556.5218235997264</v>
+      </c>
+      <c r="D51">
+        <v>34.21864170482321</v>
+      </c>
+      <c r="E51">
+        <v>448.0297458333333</v>
+      </c>
+      <c r="F51">
+        <v>27.10955616490944</v>
+      </c>
+      <c r="G51">
+        <v>345.2208582479167</v>
+      </c>
+      <c r="H51">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="I51">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>368.0981896424109</v>
+      </c>
+      <c r="D52">
+        <v>22.99747890427178</v>
+      </c>
+      <c r="E52">
+        <v>311.5890666666667</v>
+      </c>
+      <c r="F52">
+        <v>19.16650907576205</v>
+      </c>
+      <c r="G52">
+        <v>234.0370952783333</v>
+      </c>
+      <c r="H52">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I52">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>322.4343126404528</v>
+      </c>
+      <c r="D53">
+        <v>22.52805098636212</v>
+      </c>
+      <c r="E53">
+        <v>244.125</v>
+      </c>
+      <c r="F53">
+        <v>16.41494718358401</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PB</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>337.4520356099402</v>
+      </c>
+      <c r="D54">
+        <v>20.03670814608514</v>
+      </c>
+      <c r="E54">
+        <v>235.0289244943559</v>
+      </c>
+      <c r="F54">
+        <v>17.19426778636542</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>PB</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>180.3701610760502</v>
+      </c>
+      <c r="D55">
+        <v>13.99911175105757</v>
+      </c>
+      <c r="E55">
+        <v>167.1802541666667</v>
+      </c>
+      <c r="F55">
+        <v>12.76207203260779</v>
+      </c>
+      <c r="G55">
+        <v>135.4848393529167</v>
+      </c>
+      <c r="H55">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I55">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PB</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>165.2787220210014</v>
+      </c>
+      <c r="D56">
+        <v>12.75874904804666</v>
+      </c>
+      <c r="E56">
+        <v>154.3436083333333</v>
+      </c>
+      <c r="F56">
+        <v>12.11952445573199</v>
+      </c>
+      <c r="G56">
+        <v>120.7239591641667</v>
+      </c>
+      <c r="H56">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="I56">
+        <v>0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PB</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>197.93143165791</v>
+      </c>
+      <c r="D57">
+        <v>16.96938418124766</v>
+      </c>
+      <c r="E57">
+        <v>164.5833333333333</v>
+      </c>
+      <c r="F57">
+        <v>13.61016412652546</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>11484.54150769252</v>
+      </c>
+      <c r="D58">
+        <v>25.05055481377521</v>
+      </c>
+      <c r="E58">
+        <v>8868.131248810469</v>
+      </c>
+      <c r="F58">
+        <v>21.73535765496148</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>8353.344396365583</v>
+      </c>
+      <c r="D59">
+        <v>28.61637498850174</v>
+      </c>
+      <c r="E59">
+        <v>7607.616433333334</v>
+      </c>
+      <c r="F59">
+        <v>24.75829180163722</v>
+      </c>
+      <c r="G59">
+        <v>6435.108338549167</v>
+      </c>
+      <c r="H59">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="I59">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>8075.765796059985</v>
+      </c>
+      <c r="D60">
+        <v>25.90556276192179</v>
+      </c>
+      <c r="E60">
+        <v>7538.678191666667</v>
+      </c>
+      <c r="F60">
+        <v>23.14945187746103</v>
+      </c>
+      <c r="G60">
+        <v>6310.16941143</v>
+      </c>
+      <c r="H60">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="I60">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>5690.171660987475</v>
+      </c>
+      <c r="D61">
+        <v>14.24321709177373</v>
+      </c>
+      <c r="E61">
+        <v>5397.5625</v>
+      </c>
+      <c r="F61">
+        <v>13.15637387704677</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>1037.5940545631</v>
+      </c>
+      <c r="D62">
+        <v>33.11040629925366</v>
+      </c>
+      <c r="E62">
+        <v>923.1829432665364</v>
+      </c>
+      <c r="F62">
+        <v>32.2014633365885</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>436.8478326348171</v>
+      </c>
+      <c r="D63">
+        <v>15.01662230775316</v>
+      </c>
+      <c r="E63">
+        <v>408.1957583333333</v>
+      </c>
+      <c r="F63">
+        <v>13.57058669720358</v>
+      </c>
+      <c r="G63">
+        <v>330.6503341091667</v>
+      </c>
+      <c r="H63">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I63">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>358.8552018180024</v>
+      </c>
+      <c r="D64">
+        <v>11.84302116234134</v>
+      </c>
+      <c r="E64">
+        <v>334.8735708333333</v>
+      </c>
+      <c r="F64">
+        <v>10.88044712429687</v>
+      </c>
+      <c r="G64">
+        <v>273.75693314125</v>
+      </c>
+      <c r="H64">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="I64">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>579.4573038406454</v>
+      </c>
+      <c r="D65">
+        <v>19.78782669967053</v>
+      </c>
+      <c r="E65">
+        <v>413.9166666666667</v>
+      </c>
+      <c r="F65">
+        <v>13.67786909511924</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>256.1380908097555</v>
+      </c>
+      <c r="D66">
+        <v>32.04590153223321</v>
+      </c>
+      <c r="E66">
+        <v>178.9745492656952</v>
+      </c>
+      <c r="F66">
+        <v>24.61026376028568</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>177.5932122342603</v>
+      </c>
+      <c r="D67">
+        <v>26.68537701295724</v>
+      </c>
+      <c r="E67">
+        <v>148.3515</v>
+      </c>
+      <c r="F67">
+        <v>20.75530912245769</v>
+      </c>
+      <c r="G67">
+        <v>119.23406817</v>
+      </c>
+      <c r="H67">
+        <v>0.75</v>
+      </c>
+      <c r="I67">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>102.0479817253769</v>
+      </c>
+      <c r="D68">
+        <v>15.26847587589747</v>
+      </c>
+      <c r="E68">
+        <v>92.10584583333335</v>
+      </c>
+      <c r="F68">
+        <v>13.35004743661293</v>
+      </c>
+      <c r="G68">
+        <v>72.15400942375</v>
+      </c>
+      <c r="H68">
+        <v>0.875</v>
+      </c>
+      <c r="I68">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>167.3336833143073</v>
+      </c>
+      <c r="D69">
+        <v>22.18523835300109</v>
+      </c>
+      <c r="E69">
+        <v>151.1041666666667</v>
+      </c>
+      <c r="F69">
+        <v>20.01146395118532</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>5424.464447365152</v>
+      </c>
+      <c r="D70">
+        <v>29.60998157812009</v>
+      </c>
+      <c r="E70">
+        <v>3729.73839394131</v>
+      </c>
+      <c r="F70">
+        <v>25.93587571999768</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>2736.89718144045</v>
+      </c>
+      <c r="D71">
+        <v>25.67813363203082</v>
+      </c>
+      <c r="E71">
+        <v>2681.7925</v>
+      </c>
+      <c r="F71">
+        <v>24.26994407292264</v>
+      </c>
+      <c r="G71">
+        <v>2380.887142856667</v>
+      </c>
+      <c r="H71">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>2424.305037361834</v>
+      </c>
+      <c r="D72">
+        <v>24.11915664103141</v>
+      </c>
+      <c r="E72">
+        <v>2288.902329166667</v>
+      </c>
+      <c r="F72">
+        <v>22.57153017537151</v>
+      </c>
+      <c r="G72">
+        <v>1973.03267229375</v>
+      </c>
+      <c r="H72">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="I72">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>3716.039992650115</v>
+      </c>
+      <c r="D73">
+        <v>30.1851413948372</v>
+      </c>
+      <c r="E73">
+        <v>2861.125</v>
+      </c>
+      <c r="F73">
+        <v>23.34010907574835</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>144.2174873566061</v>
+      </c>
+      <c r="D74">
+        <v>17.50169920728109</v>
+      </c>
+      <c r="E74">
+        <v>114.0781746778448</v>
+      </c>
+      <c r="F74">
+        <v>13.68625995531981</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>120.6426221916957</v>
+      </c>
+      <c r="D75">
+        <v>12.13170068254861</v>
+      </c>
+      <c r="E75">
+        <v>102.6774416666666</v>
+      </c>
+      <c r="F75">
+        <v>9.656492872780623</v>
+      </c>
+      <c r="G75">
+        <v>81.28669827166667</v>
+      </c>
+      <c r="H75">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="I75">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>95.68377060048348</v>
+      </c>
+      <c r="D76">
+        <v>9.461970326538577</v>
+      </c>
+      <c r="E76">
+        <v>86.68151666666665</v>
+      </c>
+      <c r="F76">
+        <v>8.151366620944026</v>
+      </c>
+      <c r="G76">
+        <v>66.54457066083333</v>
+      </c>
+      <c r="H76">
+        <v>0.75</v>
+      </c>
+      <c r="I76">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>108.4584158135871</v>
+      </c>
+      <c r="D77">
+        <v>11.43413003242986</v>
+      </c>
+      <c r="E77">
+        <v>86.29166666666667</v>
+      </c>
+      <c r="F77">
+        <v>8.997059953359322</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>8104.424187726412</v>
+      </c>
+      <c r="D78">
+        <v>40.44168098734507</v>
+      </c>
+      <c r="E78">
+        <v>6329.5676584957</v>
+      </c>
+      <c r="F78">
+        <v>37.50869182877114</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>4486.419654327045</v>
+      </c>
+      <c r="D79">
+        <v>29.71708581109228</v>
+      </c>
+      <c r="E79">
+        <v>4186.94315</v>
+      </c>
+      <c r="F79">
+        <v>27.87180647166429</v>
+      </c>
+      <c r="G79">
+        <v>3804.940174281667</v>
+      </c>
+      <c r="H79">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="I79">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>4442.613133131334</v>
+      </c>
+      <c r="D80">
+        <v>33.35740735116693</v>
+      </c>
+      <c r="E80">
+        <v>4225.305366666666</v>
+      </c>
+      <c r="F80">
+        <v>32.1817577621138</v>
+      </c>
+      <c r="G80">
+        <v>3787.584424891667</v>
+      </c>
+      <c r="H80">
+        <v>0.25</v>
+      </c>
+      <c r="I80">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>3872.603633731065</v>
+      </c>
+      <c r="D81">
+        <v>25.10600316886911</v>
+      </c>
+      <c r="E81">
+        <v>3601.916666666667</v>
+      </c>
+      <c r="F81">
+        <v>24.21745359574475</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>122.5963786672089</v>
+      </c>
+      <c r="D82">
+        <v>71.19922964161913</v>
+      </c>
+      <c r="E82">
+        <v>103.4285998236684</v>
+      </c>
+      <c r="F82">
+        <v>55.65292419638812</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>110.9437646910007</v>
+      </c>
+      <c r="D83">
+        <v>45.18226646282348</v>
+      </c>
+      <c r="E83">
+        <v>99.24699583333333</v>
+      </c>
+      <c r="F83">
+        <v>31.87016388484857</v>
+      </c>
+      <c r="G83">
+        <v>63.79757641958334</v>
+      </c>
+      <c r="H83">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I83">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>90.322531921463</v>
+      </c>
+      <c r="D84">
+        <v>16.16590891952659</v>
+      </c>
+      <c r="E84">
+        <v>78.30007916666666</v>
+      </c>
+      <c r="F84">
+        <v>13.4437228282309</v>
+      </c>
+      <c r="G84">
+        <v>51.09075609375</v>
+      </c>
+      <c r="H84">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="I84">
+        <v>0.7083333333333334</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>105.3094753634873</v>
+      </c>
+      <c r="D85">
+        <v>34.04128992898078</v>
+      </c>
+      <c r="E85">
+        <v>79.85416666666667</v>
+      </c>
+      <c r="F85">
+        <v>25.48016171806803</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>59.99324547537996</v>
+      </c>
+      <c r="D86">
+        <v>36.26283712232887</v>
+      </c>
+      <c r="E86">
+        <v>46.42757563360751</v>
+      </c>
+      <c r="F86">
+        <v>32.01181219733068</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>31.69791153160919</v>
+      </c>
+      <c r="D87">
+        <v>22.28662035736208</v>
+      </c>
+      <c r="E87">
+        <v>25.36009583333333</v>
+      </c>
+      <c r="F87">
+        <v>18.33327516812764</v>
+      </c>
+      <c r="G87">
+        <v>21.98201089041667</v>
+      </c>
+      <c r="H87">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="I87">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>40.79885092686516</v>
+      </c>
+      <c r="D88">
+        <v>29.5536137054141</v>
+      </c>
+      <c r="E88">
+        <v>33.89224583333333</v>
+      </c>
+      <c r="F88">
+        <v>25.35334298753678</v>
+      </c>
+      <c r="G88">
+        <v>24.39783362625</v>
+      </c>
+      <c r="H88">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I88">
+        <v>0.4583333333333333</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>33.39353546206247</v>
+      </c>
+      <c r="D89">
+        <v>23.44101027832386</v>
+      </c>
+      <c r="E89">
+        <v>26.8125</v>
+      </c>
+      <c r="F89">
+        <v>18.87151976518342</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>11282.176059295</v>
+      </c>
+      <c r="D90">
+        <v>33.88616903808781</v>
+      </c>
+      <c r="E90">
+        <v>9046.618010075275</v>
+      </c>
+      <c r="F90">
+        <v>32.07223505271391</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>7175.025466313111</v>
+      </c>
+      <c r="D91">
+        <v>26.44259085286908</v>
+      </c>
+      <c r="E91">
+        <v>6662.606929166667</v>
+      </c>
+      <c r="F91">
+        <v>24.21966148458909</v>
+      </c>
+      <c r="G91">
+        <v>6028.18712075125</v>
+      </c>
+      <c r="H91">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="I91">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>6813.21135328107</v>
+      </c>
+      <c r="D92">
+        <v>23.40781779079695</v>
+      </c>
+      <c r="E92">
+        <v>6377.453075</v>
+      </c>
+      <c r="F92">
+        <v>21.85387012429225</v>
+      </c>
+      <c r="G92">
+        <v>5905.246795468333</v>
+      </c>
+      <c r="H92">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="I92">
+        <v>0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>7571.527352955327</v>
+      </c>
+      <c r="D93">
+        <v>26.42503346544768</v>
+      </c>
+      <c r="E93">
+        <v>7249.666666666667</v>
+      </c>
+      <c r="F93">
+        <v>24.68192918616597</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>62798.26853839643</v>
+      </c>
+      <c r="D94">
+        <v>34.67147554185567</v>
+      </c>
+      <c r="E94">
+        <v>55360.37226797239</v>
+      </c>
+      <c r="F94">
+        <v>33.50512395722087</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>50254.56183357508</v>
+      </c>
+      <c r="D95">
+        <v>37.13364301222754</v>
+      </c>
+      <c r="E95">
+        <v>45067.97170416667</v>
+      </c>
+      <c r="F95">
+        <v>32.92768747019047</v>
+      </c>
+      <c r="G95">
+        <v>40019.49618830125</v>
+      </c>
+      <c r="H95">
+        <v>0.25</v>
+      </c>
+      <c r="I95">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>50029.13696096711</v>
+      </c>
+      <c r="D96">
+        <v>35.87848577662518</v>
+      </c>
+      <c r="E96">
+        <v>47293.71702916667</v>
+      </c>
+      <c r="F96">
+        <v>33.15029178088017</v>
+      </c>
+      <c r="G96">
+        <v>39980.19975615208</v>
+      </c>
+      <c r="H96">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I96">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>Bastos</t>
         </is>
       </c>
-      <c r="C17">
+      <c r="C97">
         <v>57132.55334683681</v>
       </c>
-      <c r="D17">
+      <c r="D97">
         <v>31.63492990547712</v>
       </c>
-      <c r="E17">
+      <c r="E97">
         <v>54985.20833333334</v>
       </c>
-      <c r="F17">
+      <c r="F97">
         <v>31.10286451291734</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>70.47058712932468</v>
+      </c>
+      <c r="D98">
+        <v>16.32497057281196</v>
+      </c>
+      <c r="E98">
+        <v>56.19885774531415</v>
+      </c>
+      <c r="F98">
+        <v>14.22404759088507</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>88.2275416477532</v>
+      </c>
+      <c r="D99">
+        <v>27.40752282780148</v>
+      </c>
+      <c r="E99">
+        <v>66.07997083333333</v>
+      </c>
+      <c r="F99">
+        <v>19.92727256188078</v>
+      </c>
+      <c r="G99">
+        <v>51.43643032958333</v>
+      </c>
+      <c r="H99">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="I99">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>51.69887599900638</v>
+      </c>
+      <c r="D100">
+        <v>13.68504108378402</v>
+      </c>
+      <c r="E100">
+        <v>44.00907916666666</v>
+      </c>
+      <c r="F100">
+        <v>11.35080051677001</v>
+      </c>
+      <c r="G100">
+        <v>30.76690507708333</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>157.3631077802551</v>
+      </c>
+      <c r="D101">
+        <v>39.32524696433023</v>
+      </c>
+      <c r="E101">
+        <v>113.8958333333333</v>
+      </c>
+      <c r="F101">
+        <v>27.84414015046498</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>253.5246380119901</v>
+      </c>
+      <c r="D102">
+        <v>43.8986012262964</v>
+      </c>
+      <c r="E102">
+        <v>194.0719604426589</v>
+      </c>
+      <c r="F102">
+        <v>30.36252294401579</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ARABM</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>104.9186927292651</v>
+      </c>
+      <c r="D103">
+        <v>17.09808580419731</v>
+      </c>
+      <c r="E103">
+        <v>81.74203333333334</v>
+      </c>
+      <c r="F103">
+        <v>11.91797140256771</v>
+      </c>
+      <c r="G103">
+        <v>63.26858932916667</v>
+      </c>
+      <c r="H103">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I103">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ARABMwGT</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>79.3745624248936</v>
+      </c>
+      <c r="D104">
+        <v>13.99716192358905</v>
+      </c>
+      <c r="E104">
+        <v>64.78262916666667</v>
+      </c>
+      <c r="F104">
+        <v>10.221307437324</v>
+      </c>
+      <c r="G104">
+        <v>51.10544637458333</v>
+      </c>
+      <c r="H104">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="I104">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Bastos</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>83.85181296060314</v>
+      </c>
+      <c r="D105">
+        <v>12.09874329211331</v>
+      </c>
+      <c r="E105">
+        <v>65.625</v>
+      </c>
+      <c r="F105">
+        <v>8.790371213460137</v>
       </c>
     </row>
   </sheetData>
